--- a/test_cases_ddt.xlsx
+++ b/test_cases_ddt.xlsx
@@ -55,8 +55,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00B8CCE4"/>
+        <bgColor rgb="00B8CCE4"/>
       </patternFill>
     </fill>
     <fill>
@@ -67,8 +67,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,10 +88,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,32 +573,32 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Click button</t>
+          <t>Click link</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Login</t>
+          <t>https://www.linkedin.com/company/orangehrm/mycompany/</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Button click triggers expected action</t>
+          <t>Navigates to linked page</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Button is not working!</t>
+          <t>Navigates to linked page</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>Button #1 on page</t>
+          <t>Link #1 on page</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/orangehrm/mycompany/</t>
+          <t>https://www.facebook.com/OrangeHRM/</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>Link #1 on page</t>
+          <t>Link #2 on page</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/OrangeHRM/</t>
+          <t>https://twitter.com/orangehrm?lang=en</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>Link #2 on page</t>
+          <t>Link #3 on page</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>https://twitter.com/orangehrm?lang=en</t>
+          <t>https://www.youtube.com/c/OrangeHRMInc</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -733,199 +733,199 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Link #3 on page</t>
+          <t>Link #4 on page</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>admin123</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="n">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Click link</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/c/OrangeHRMInc</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>Link #4 on page</t>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>OrangeHRM, Inc</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Link #5 on page</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>admin123</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>Click link</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>OrangeHRM, Inc</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>Link #5 on page</t>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #1 on page</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>invalid</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>wrongpass</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Form</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Submit POST form</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>/web/index.php/auth/validate</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>Form submitted successfully</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>Form submission is broken! (error detected)</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>Form #1 on page</t>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #2 on page</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>invalid</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>wrongpass</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>Button</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>Click button</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>Login</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>Button click triggers expected action</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>Button is not working!</t>
         </is>
       </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>Button #1 on page</t>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #3 on page</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>invalid</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>wrongpass</t>
+          <t>admin123</t>
         </is>
       </c>
       <c r="C11" s="6" t="n">
@@ -933,179 +933,179 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>Click link</t>
+          <t>Click button</t>
         </is>
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/orangehrm/mycompany/</t>
+          <t>Unnamed button</t>
         </is>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>Navigates to linked page</t>
+          <t>Button click triggers expected action</t>
         </is>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>Navigates to linked page</t>
+          <t>Button is not working!</t>
         </is>
       </c>
       <c r="I11" s="6" t="inlineStr">
         <is>
-          <t>Link #1 on page</t>
+          <t>[Post-login] Button #4 on page</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>invalid</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>wrongpass</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Click link</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/OrangeHRM/</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>Link #2 on page</t>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #5 on page</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>invalid</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>wrongpass</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Click link</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>https://twitter.com/orangehrm?lang=en</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>Link #3 on page</t>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #6 on page</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>invalid</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>wrongpass</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Click link</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/c/OrangeHRMInc</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>Link #4 on page</t>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #7 on page</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>invalid</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>wrongpass</t>
+          <t>admin123</t>
         </is>
       </c>
       <c r="C15" s="6" t="n">
@@ -1113,32 +1113,8432 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Button</t>
         </is>
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>Click link</t>
+          <t>Click button</t>
         </is>
       </c>
       <c r="F15" s="6" t="inlineStr">
         <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #8 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #9 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #10 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I18" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #11 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #12 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>Button is not working!</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>[Post-login] Button #13 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>https://www.orangehrm.com/</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #1 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #2 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>PIM</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #3 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #4 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #5 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #6 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>My Info</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #7 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #8 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>Dashboard</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #9 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Directory</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #10 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #11 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>Claim</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #12 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>Buzz</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I33" s="5" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #13 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #14 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
           <t>OrangeHRM, Inc</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="H15" s="6" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="I15" s="6" t="inlineStr">
-        <is>
-          <t>Link #5 on page</t>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>[Post-login] Link #15 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" s="6" t="inlineStr">
+        <is>
+          <t>Form</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>Submit POST form</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="inlineStr">
+        <is>
+          <t>/en/home/submitForm</t>
+        </is>
+      </c>
+      <c r="G36" s="6" t="inlineStr">
+        <is>
+          <t>Form submitted successfully</t>
+        </is>
+      </c>
+      <c r="H36" s="6" t="inlineStr">
+        <is>
+          <t>Form submission failed with status 404</t>
+        </is>
+      </c>
+      <c r="I36" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Form #1 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G37" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H37" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I37" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #1 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t>Book a Free Demo</t>
+        </is>
+      </c>
+      <c r="G38" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H38" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I38" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #2 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="inlineStr">
+        <is>
+          <t>Contact Sales</t>
+        </is>
+      </c>
+      <c r="G39" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H39" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I39" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #3 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>Book a Free Demo</t>
+        </is>
+      </c>
+      <c r="G40" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H40" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I40" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #4 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>Contact Sales</t>
+        </is>
+      </c>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H41" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I41" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #5 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>‹</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H42" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I42" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #6 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="inlineStr">
+        <is>
+          <t>›</t>
+        </is>
+      </c>
+      <c r="G43" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H43" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I43" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #7 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G44" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H44" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I44" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #8 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G45" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H45" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I45" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #9 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D46" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G46" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H46" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I46" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #10 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>Unnamed button</t>
+        </is>
+      </c>
+      <c r="G47" s="6" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H47" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Button click error: ElementHandle.click: Timeout 30000ms exceeded.
+Call log:
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not visible
+    - retrying click action
+      - waiting 100ms
+    56 × waiting for element to be visible, enabled and stable
+       - element is not visible
+     - retrying click action
+       - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="I47" s="6" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #11 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>Click button</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>30-Day Free Trial</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>Button click triggers expected action</t>
+        </is>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
+        <is>
+          <t>Button click triggered a DOM change (success) [Screenshot: screenshot_30-Day_Free_Trial_10.png]</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Button #12 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>https://www.orangehrm.com/</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #1 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>HR Administration</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #2 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>Employee Management</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #3 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>Reporting &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #4 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>Mobile App</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #5 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Recruitment (ATS)</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #6 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>Onboarding</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #7 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>Request Desk</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H56" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I56" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #8 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>Payroll Connector</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #9 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>PTO / Leave Management</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #10 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>Time Tracking</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I59" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #11 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>RosterNEW</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H60" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I60" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #12 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>Performance Management</t>
+        </is>
+      </c>
+      <c r="G61" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #13 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Career Development</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #14 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I63" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #15 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>SurveysNEW</t>
+        </is>
+      </c>
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I64" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #16 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>Connectors</t>
+        </is>
+      </c>
+      <c r="G65" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I65" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #17 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>STARTER (Open-Source)</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #18 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>ADVANCED</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I67" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #19 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>Case Studies</t>
+        </is>
+      </c>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I68" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #20 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>Testimonials</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #21 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Partner Programs</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #22 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>Our Partners</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I71" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #23 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H72" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I72" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #24 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>C-Suite</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #25 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Recruiter</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #26 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H75" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I75" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #27 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>HR for All</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #28 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E77" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>CS &amp; Support</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H77" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I77" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #29 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Customizations</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #30 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>Flexible Hosting</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I79" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #31 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>eBooks</t>
+        </is>
+      </c>
+      <c r="G80" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H80" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I80" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #32 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E81" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+      <c r="G81" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H81" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I81" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #33 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Learn in Depth</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #34 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>HR's Guide to Effective Career Development</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H83" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I83" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #35 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E84" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>Product Overview</t>
+        </is>
+      </c>
+      <c r="G84" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H84" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I84" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #36 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D85" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E85" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>Starter Overview (Open Source)</t>
+        </is>
+      </c>
+      <c r="G85" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H85" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I85" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #37 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Advanced Overview (Short)</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #38 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Overview (Long)</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H87" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I87" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #39 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E88" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>OrangeHRM ROI</t>
+        </is>
+      </c>
+      <c r="G88" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H88" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I88" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #40 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>The HR Dictionary</t>
+        </is>
+      </c>
+      <c r="G89" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H89" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I89" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #41 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Other Resources</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #42 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>Data Security Promise</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H91" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I91" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #43 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E92" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>Starter Forum (Open Source)</t>
+        </is>
+      </c>
+      <c r="G92" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H92" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I92" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #44 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="D93" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E93" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>OrangeHRM API</t>
+        </is>
+      </c>
+      <c r="G93" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H93" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I93" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #45 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>Certification Program</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #46 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>About Us</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H95" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I95" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #47 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E96" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>Executive Profiles</t>
+        </is>
+      </c>
+      <c r="G96" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H96" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I96" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #48 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E97" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F97" s="5" t="inlineStr">
+        <is>
+          <t>Press Releases</t>
+        </is>
+      </c>
+      <c r="G97" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H97" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I97" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #49 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>News Articles</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #50 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>Careers</t>
+        </is>
+      </c>
+      <c r="G99" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H99" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I99" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #51 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D100" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E100" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+      <c r="G100" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H100" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I100" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #52 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D101" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E101" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F101" s="5" t="inlineStr">
+        <is>
+          <t>Solutions</t>
+        </is>
+      </c>
+      <c r="G101" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H101" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I101" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #53 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>HR Administration</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #54 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="inlineStr">
+        <is>
+          <t>Employee Management</t>
+        </is>
+      </c>
+      <c r="G103" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H103" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I103" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #55 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="D104" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E104" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>Reporting &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="G104" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H104" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I104" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #56 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B105" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="D105" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E105" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F105" s="5" t="inlineStr">
+        <is>
+          <t>Mobile App</t>
+        </is>
+      </c>
+      <c r="G105" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H105" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I105" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #57 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>Recruitment (ATS)</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #58 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="inlineStr">
+        <is>
+          <t>Onboarding</t>
+        </is>
+      </c>
+      <c r="G107" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H107" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I107" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #59 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E108" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>Request Desk</t>
+        </is>
+      </c>
+      <c r="G108" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H108" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I108" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #60 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B109" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="D109" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E109" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F109" s="5" t="inlineStr">
+        <is>
+          <t>Payroll Connector</t>
+        </is>
+      </c>
+      <c r="G109" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H109" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I109" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #61 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>PTO / Leave Management</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #62 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F111" s="3" t="inlineStr">
+        <is>
+          <t>Time Tracking</t>
+        </is>
+      </c>
+      <c r="G111" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H111" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I111" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #63 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D112" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E112" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>RosterNEW</t>
+        </is>
+      </c>
+      <c r="G112" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H112" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I112" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #64 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B113" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="D113" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E113" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F113" s="5" t="inlineStr">
+        <is>
+          <t>Performance Management</t>
+        </is>
+      </c>
+      <c r="G113" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H113" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I113" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #65 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>Career Development</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #66 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H115" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I115" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #67 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>SurveysNEW</t>
+        </is>
+      </c>
+      <c r="G116" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H116" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I116" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #68 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B117" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="D117" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E117" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F117" s="5" t="inlineStr">
+        <is>
+          <t>STARTER (Open-Source)</t>
+        </is>
+      </c>
+      <c r="G117" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H117" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I117" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #69 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>ADVANCED</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #70 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>118</v>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>Why OrangeHRM</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H119" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I119" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #71 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>119</v>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>Case Studies</t>
+        </is>
+      </c>
+      <c r="G120" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H120" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #72 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B121" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C121" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="D121" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E121" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F121" s="5" t="inlineStr">
+        <is>
+          <t>Testimonials</t>
+        </is>
+      </c>
+      <c r="G121" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H121" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I121" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #73 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>Partner Programs</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #74 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>Our Partners</t>
+        </is>
+      </c>
+      <c r="G123" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H123" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I123" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #75 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>123</v>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E124" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="G124" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H124" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I124" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #76 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B125" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C125" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="D125" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E125" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F125" s="5" t="inlineStr">
+        <is>
+          <t>C-Suite</t>
+        </is>
+      </c>
+      <c r="G125" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H125" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I125" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #77 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>Recruiter</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #78 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="G127" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H127" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I127" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #79 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E128" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>HR for All</t>
+        </is>
+      </c>
+      <c r="G128" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H128" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I128" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #80 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B129" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>128</v>
+      </c>
+      <c r="D129" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E129" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F129" s="5" t="inlineStr">
+        <is>
+          <t>CS &amp; Support</t>
+        </is>
+      </c>
+      <c r="G129" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H129" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I129" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #81 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>Customizations</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #82 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>Resources</t>
+        </is>
+      </c>
+      <c r="G131" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H131" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I131" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #83 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E132" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>eBooks</t>
+        </is>
+      </c>
+      <c r="G132" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H132" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I132" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #84 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B133" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C133" s="5" t="n">
+        <v>132</v>
+      </c>
+      <c r="D133" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E133" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F133" s="5" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+      <c r="G133" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H133" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I133" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #85 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>Learn in Depth</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #86 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>HR's Guide to Effective Career Development</t>
+        </is>
+      </c>
+      <c r="G135" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H135" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I135" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #87 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>Product Overview</t>
+        </is>
+      </c>
+      <c r="G136" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H136" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I136" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #88 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C137" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E137" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F137" s="5" t="inlineStr">
+        <is>
+          <t>Starter Overview (Open Source)</t>
+        </is>
+      </c>
+      <c r="G137" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H137" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I137" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #89 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>Advanced Overview (Short)</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #90 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F139" s="3" t="inlineStr">
+        <is>
+          <t>Advanced Overview (Long)</t>
+        </is>
+      </c>
+      <c r="G139" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H139" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I139" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #91 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E140" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>OrangeHRM ROI</t>
+        </is>
+      </c>
+      <c r="G140" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H140" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I140" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #92 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C141" s="5" t="n">
+        <v>140</v>
+      </c>
+      <c r="D141" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E141" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F141" s="5" t="inlineStr">
+        <is>
+          <t>The HR Dictionary</t>
+        </is>
+      </c>
+      <c r="G141" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H141" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I141" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #93 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>Other Resources</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #94 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>142</v>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F143" s="3" t="inlineStr">
+        <is>
+          <t>Data Security Promise</t>
+        </is>
+      </c>
+      <c r="G143" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H143" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I143" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #95 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>Starter Forum (Open Source)</t>
+        </is>
+      </c>
+      <c r="G144" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H144" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I144" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #96 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B145" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="D145" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E145" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F145" s="5" t="inlineStr">
+        <is>
+          <t>OrangeHRM API</t>
+        </is>
+      </c>
+      <c r="G145" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H145" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I145" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #97 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>Certification Program</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #98 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="n">
+        <v>146</v>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F147" s="3" t="inlineStr">
+        <is>
+          <t>About Us</t>
+        </is>
+      </c>
+      <c r="G147" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H147" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I147" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #99 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E148" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>Executive Profiles</t>
+        </is>
+      </c>
+      <c r="G148" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H148" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I148" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #100 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B149" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C149" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="D149" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E149" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F149" s="5" t="inlineStr">
+        <is>
+          <t>Press Releases</t>
+        </is>
+      </c>
+      <c r="G149" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H149" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I149" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #101 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>News Articles</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #102 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>Careers</t>
+        </is>
+      </c>
+      <c r="G151" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H151" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I151" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #103 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>151</v>
+      </c>
+      <c r="D152" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E152" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+      <c r="G152" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H152" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I152" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #104 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B153" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="D153" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F153" s="5" t="inlineStr">
+        <is>
+          <t>Book a Free Demo</t>
+        </is>
+      </c>
+      <c r="G153" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H153" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I153" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #105 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>Contact Sales</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #106 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="n">
+        <v>154</v>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F155" s="3" t="inlineStr">
+        <is>
+          <t>Book a Free Demo</t>
+        </is>
+      </c>
+      <c r="G155" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H155" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I155" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #107 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B156" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C156" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="D156" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E156" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>Contact Sales</t>
+        </is>
+      </c>
+      <c r="G156" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H156" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I156" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #108 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>156</v>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E157" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>Learn More</t>
+        </is>
+      </c>
+      <c r="G157" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H157" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I157" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #109 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>HR Administration</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #110 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="n">
+        <v>158</v>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F159" s="3" t="inlineStr">
+        <is>
+          <t>Employee Management</t>
+        </is>
+      </c>
+      <c r="G159" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H159" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I159" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #111 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B160" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C160" s="4" t="n">
+        <v>159</v>
+      </c>
+      <c r="D160" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E160" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>Reporting</t>
+        </is>
+      </c>
+      <c r="G160" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H160" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I160" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #112 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B161" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="D161" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E161" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F161" s="5" t="inlineStr">
+        <is>
+          <t>Mobile App</t>
+        </is>
+      </c>
+      <c r="G161" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H161" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I161" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #113 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>Learn More</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #114 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="n">
+        <v>162</v>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F163" s="3" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="G163" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H163" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I163" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #115 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B164" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="D164" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E164" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F164" s="4" t="inlineStr">
+        <is>
+          <t>Career Development</t>
+        </is>
+      </c>
+      <c r="G164" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H164" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I164" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #116 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B165" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C165" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="D165" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E165" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F165" s="5" t="inlineStr">
+        <is>
+          <t>Training (LMS)</t>
+        </is>
+      </c>
+      <c r="G165" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H165" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I165" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #117 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>Learn More</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I166" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #118 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F167" s="3" t="inlineStr">
+        <is>
+          <t>Recruitment (ATS)</t>
+        </is>
+      </c>
+      <c r="G167" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H167" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I167" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #119 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B168" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C168" s="4" t="n">
+        <v>167</v>
+      </c>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E168" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>Onboarding</t>
+        </is>
+      </c>
+      <c r="G168" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H168" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I168" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #120 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B169" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>168</v>
+      </c>
+      <c r="D169" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E169" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F169" s="5" t="inlineStr">
+        <is>
+          <t>Request Desk</t>
+        </is>
+      </c>
+      <c r="G169" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H169" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I169" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #121 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>Learn More</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #122 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>170</v>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F171" s="3" t="inlineStr">
+        <is>
+          <t>Payroll Connector</t>
+        </is>
+      </c>
+      <c r="G171" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H171" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I171" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #123 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B172" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C172" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="D172" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E172" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F172" s="4" t="inlineStr">
+        <is>
+          <t>PTO / Leave Management</t>
+        </is>
+      </c>
+      <c r="G172" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H172" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I172" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #124 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B173" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>172</v>
+      </c>
+      <c r="D173" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E173" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F173" s="5" t="inlineStr">
+        <is>
+          <t>Time Tracking</t>
+        </is>
+      </c>
+      <c r="G173" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H173" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I173" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #125 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>30-Day Free Trial</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #126 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F175" s="3" t="inlineStr">
+        <is>
+          <t>OrangeHRM</t>
+        </is>
+      </c>
+      <c r="G175" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H175" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I175" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #127 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B176" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C176" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="D176" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E176" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F176" s="4" t="inlineStr">
+        <is>
+          <t>Executive Profile</t>
+        </is>
+      </c>
+      <c r="G176" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H176" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I176" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #128 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B177" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>176</v>
+      </c>
+      <c r="D177" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E177" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F177" s="5" t="inlineStr">
+        <is>
+          <t>Press Releases</t>
+        </is>
+      </c>
+      <c r="G177" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H177" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I177" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #129 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>News Articles</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #130 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F179" s="3" t="inlineStr">
+        <is>
+          <t>Careers</t>
+        </is>
+      </c>
+      <c r="G179" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H179" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I179" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #131 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B180" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="D180" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E180" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F180" s="4" t="inlineStr">
+        <is>
+          <t>Open Source HRMS</t>
+        </is>
+      </c>
+      <c r="G180" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H180" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I180" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #132 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B181" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="D181" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E181" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F181" s="5" t="inlineStr">
+        <is>
+          <t>CS &amp; Support</t>
+        </is>
+      </c>
+      <c r="G181" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H181" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I181" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #133 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>Our Partners</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #134 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F183" s="3" t="inlineStr">
+        <is>
+          <t>Testimonials</t>
+        </is>
+      </c>
+      <c r="G183" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H183" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I183" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #135 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B184" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C184" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="D184" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E184" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>OrangeHRM API</t>
+        </is>
+      </c>
+      <c r="G184" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H184" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I184" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #136 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B185" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C185" s="5" t="n">
+        <v>184</v>
+      </c>
+      <c r="D185" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E185" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F185" s="5" t="inlineStr">
+        <is>
+          <t>Privacy Policy</t>
+        </is>
+      </c>
+      <c r="G185" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H185" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I185" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #137 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>Service Privacy Policy</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #138 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F187" s="3" t="inlineStr">
+        <is>
+          <t>General Public License</t>
+        </is>
+      </c>
+      <c r="G187" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H187" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I187" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #139 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B188" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C188" s="4" t="n">
+        <v>187</v>
+      </c>
+      <c r="D188" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E188" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F188" s="4" t="inlineStr">
+        <is>
+          <t>Commercial License</t>
+        </is>
+      </c>
+      <c r="G188" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H188" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I188" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #140 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B189" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C189" s="5" t="n">
+        <v>188</v>
+      </c>
+      <c r="D189" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E189" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F189" s="5" t="inlineStr">
+        <is>
+          <t>DPF Privacy Policy</t>
+        </is>
+      </c>
+      <c r="G189" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H189" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I189" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #141 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>Modern Day Slavery Statement</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #142 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="n">
+        <v>190</v>
+      </c>
+      <c r="D191" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E191" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F191" s="3" t="inlineStr">
+        <is>
+          <t>USA (HQ) +1-914-458-4254</t>
+        </is>
+      </c>
+      <c r="G191" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H191" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I191" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #143 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B192" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>191</v>
+      </c>
+      <c r="D192" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E192" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F192" s="4" t="inlineStr">
+        <is>
+          <t>Europe +44 33 3303 1144</t>
+        </is>
+      </c>
+      <c r="G192" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H192" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I192" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #144 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>192</v>
+      </c>
+      <c r="D193" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E193" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F193" s="5" t="inlineStr">
+        <is>
+          <t>APAC +44 33 3303 1144</t>
+        </is>
+      </c>
+      <c r="G193" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H193" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I193" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #145 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>Global Support +1-914-908-4886</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #146 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="n">
+        <v>194</v>
+      </c>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E195" s="3" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F195" s="3" t="inlineStr">
+        <is>
+          <t>Our Offices</t>
+        </is>
+      </c>
+      <c r="G195" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H195" s="3" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I195" s="3" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #147 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B196" s="4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C196" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="D196" s="4" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E196" s="4" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F196" s="4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/OrangeHRM</t>
+        </is>
+      </c>
+      <c r="G196" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H196" s="4" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I196" s="4" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #148 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B197" s="5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>196</v>
+      </c>
+      <c r="D197" s="5" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E197" s="5" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F197" s="5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/orangehrm/mycompany/</t>
+        </is>
+      </c>
+      <c r="G197" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H197" s="5" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I197" s="5" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #149 on page</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>Click link</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/user/orangehrm</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Navigates to linked page</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="inlineStr">
+        <is>
+          <t>[Section: ] Link #150 on page</t>
         </is>
       </c>
     </row>

--- a/test_cases_ddt.xlsx
+++ b/test_cases_ddt.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,11 +30,8 @@
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
-    <font>
-      <sz val="14"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -49,20 +46,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCE6F1"/>
-        <bgColor rgb="00DCE6F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095B3D7"/>
-        <bgColor rgb="0095B3D7"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,13 +63,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -450,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,216 +501,16 @@
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Click contact link</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>📧 Email Support Link</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Should navigate to contact page</t>
-        </is>
-      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Link navigation test case generated</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>[Intelligent Analysis - contact link]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>admin123</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Analysis</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Detect website type using ML</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Website Intelligence</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Successfully detect website type</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Website type: ecommerce</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>[ML Intelligence - Optimized]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>admin123</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Click link</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>📧 Email Support</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>Link #1 on page [ML Enhanced - Deduplicated]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>admin123</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>Click link</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>🐦 Twitter Updates</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>Link #2 on page [ML Enhanced - Deduplicated]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>admin123</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Click link</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>📦 GitHub Status</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Navigates to linked page</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Link #3 on page [ML Enhanced - Deduplicated]</t>
-        </is>
-      </c>
+          <t>Failed to load page</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
